--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -284,10 +284,10 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>35.0</v>
+        <v>37.0</v>
       </c>
       <c r="G6" t="n">
-        <v>72.0</v>
+        <v>70.0</v>
       </c>
       <c r="H6" t="n">
         <v>17.0</v>
@@ -440,7 +440,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -492,7 +492,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -518,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>1496.0</v>
+        <v>1498.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -570,7 +570,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>220.0</v>
+        <v>219.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>266.0</v>
+        <v>260.0</v>
       </c>
       <c r="G7" t="n">
-        <v>145.0</v>
+        <v>140.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -680,7 +680,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="22">
@@ -700,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>219.0</v>
+        <v>216.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -313,7 +313,7 @@
         <v>260.0</v>
       </c>
       <c r="G7" t="n">
-        <v>140.0</v>
+        <v>139.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>216.0</v>
+        <v>214.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -29,13 +29,13 @@
     <t>Production type</t>
   </si>
   <si>
-    <t>Wild</t>
-  </si>
-  <si>
-    <t>Housed</t>
+    <t>Indoor</t>
   </si>
   <si>
     <t>Not available</t>
+  </si>
+  <si>
+    <t>Outdoor</t>
   </si>
   <si>
     <t>Ca</t>
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>260.0</v>
+        <v>252.0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.0</v>
+        <v>135.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>214.0</v>
+        <v>206.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -313,7 +313,7 @@
         <v>252.0</v>
       </c>
       <c r="G7" t="n">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -492,7 +492,7 @@
         <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="G14" t="n">
         <v>0.0</v>
@@ -518,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>1498.0</v>
+        <v>1499.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -602,7 +602,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>206.0</v>
+        <v>204.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -310,7 +310,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>252.0</v>
+        <v>250.0</v>
       </c>
       <c r="G7" t="n">
         <v>136.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -209,7 +209,7 @@
         <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -287,7 +287,7 @@
         <v>37.0</v>
       </c>
       <c r="G6" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="H6" t="n">
         <v>17.0</v>
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>250.0</v>
+        <v>224.0</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0</v>
+        <v>133.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -336,13 +336,13 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="G8" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -570,7 +570,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>204.0</v>
+        <v>181.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -674,13 +674,13 @@
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G21" t="n">
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="22">
@@ -697,16 +697,16 @@
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>30.0</v>
+        <v>7.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -723,16 +723,16 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="G23" t="n">
         <v>0.0</v>
       </c>
       <c r="H23" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="G6" t="n">
         <v>69.0</v>
       </c>
       <c r="H6" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="7">
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>224.0</v>
+        <v>218.0</v>
       </c>
       <c r="G7" t="n">
-        <v>133.0</v>
+        <v>130.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -287,7 +287,7 @@
         <v>36.0</v>
       </c>
       <c r="G6" t="n">
-        <v>69.0</v>
+        <v>68.0</v>
       </c>
       <c r="H6" t="n">
         <v>18.0</v>
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>218.0</v>
+        <v>216.0</v>
       </c>
       <c r="G7" t="n">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -336,13 +336,13 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="G8" t="n">
         <v>36.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="G6" t="n">
         <v>68.0</v>
       </c>
       <c r="H6" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="7">
@@ -336,10 +336,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="G8" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
@@ -498,7 +498,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -524,7 +524,7 @@
         <v>0.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>181.0</v>
+        <v>175.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -232,7 +232,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="G4" t="n">
         <v>10.0</v>
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>216.0</v>
+        <v>215.0</v>
       </c>
       <c r="G7" t="n">
-        <v>131.0</v>
+        <v>129.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -518,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>1499.0</v>
+        <v>1501.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -209,7 +209,7 @@
         <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -235,7 +235,7 @@
         <v>7.0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>215.0</v>
+        <v>211.0</v>
       </c>
       <c r="G7" t="n">
-        <v>129.0</v>
+        <v>122.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -209,7 +209,7 @@
         <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="G6" t="n">
-        <v>68.0</v>
+        <v>62.0</v>
       </c>
       <c r="H6" t="n">
-        <v>19.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
@@ -313,7 +313,7 @@
         <v>211.0</v>
       </c>
       <c r="G7" t="n">
-        <v>122.0</v>
+        <v>108.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -440,7 +440,7 @@
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -518,7 +518,7 @@
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>1501.0</v>
+        <v>1500.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>174.0</v>
+        <v>172.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="F20" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="G20" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -680,7 +680,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="22">

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>211.0</v>
+        <v>210.0</v>
       </c>
       <c r="G7" t="n">
-        <v>108.0</v>
+        <v>109.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -287,10 +287,10 @@
         <v>34.0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="H6" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -313,7 +313,7 @@
         <v>210.0</v>
       </c>
       <c r="G7" t="n">
-        <v>109.0</v>
+        <v>111.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>171.0</v>
+        <v>170.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>210.0</v>
+        <v>209.0</v>
       </c>
       <c r="G7" t="n">
-        <v>111.0</v>
+        <v>110.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>170.0</v>
+        <v>167.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -310,10 +310,10 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>209.0</v>
+        <v>208.0</v>
       </c>
       <c r="G7" t="n">
-        <v>110.0</v>
+        <v>111.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -596,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="G18" t="n">
         <v>0.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>167.0</v>
+        <v>165.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -313,7 +313,7 @@
         <v>208.0</v>
       </c>
       <c r="G7" t="n">
-        <v>111.0</v>
+        <v>112.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -284,13 +284,13 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="G6" t="n">
         <v>61.0</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="7">
@@ -310,7 +310,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>208.0</v>
+        <v>207.0</v>
       </c>
       <c r="G7" t="n">
         <v>112.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>165.0</v>
+        <v>164.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>
@@ -700,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -284,7 +284,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>32.0</v>
+        <v>31.0</v>
       </c>
       <c r="G6" t="n">
         <v>61.0</v>
@@ -310,7 +310,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="n">
-        <v>207.0</v>
+        <v>206.0</v>
       </c>
       <c r="G7" t="n">
         <v>112.0</v>
@@ -680,7 +680,7 @@
         <v>0.0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="22">
@@ -700,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="F22" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G22" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -336,10 +336,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="G8" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
@@ -622,7 +622,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>164.0</v>
+        <v>160.0</v>
       </c>
       <c r="G19" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="22">
   <si>
     <t>Area</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Ca</t>
   </si>
   <si>
-    <t>Cl</t>
-  </si>
-  <si>
     <t>INF</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Campania</t>
   </si>
   <si>
-    <t>Calabria</t>
-  </si>
-  <si>
     <t>PZ</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
   </si>
   <si>
     <t>SA</t>
-  </si>
-  <si>
-    <t>RC</t>
   </si>
   <si>
     <t>Zoological garden</t>
@@ -168,16 +159,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -194,16 +185,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -220,16 +211,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
         <v>7.0</v>
@@ -246,16 +237,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>5.0</v>
@@ -272,16 +263,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>31.0</v>
@@ -298,22 +289,22 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>206.0</v>
+        <v>194.0</v>
       </c>
       <c r="G7" t="n">
-        <v>112.0</v>
+        <v>113.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -324,16 +315,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" t="n">
         <v>18.0</v>
@@ -350,16 +341,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -376,16 +367,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>4.0</v>
@@ -402,16 +393,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -428,16 +419,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>9.0</v>
@@ -454,16 +445,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" t="n">
         <v>12.0</v>
@@ -480,16 +471,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
         <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>14.0</v>
@@ -506,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>1500.0</v>
@@ -532,16 +523,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
         <v>2.0</v>
@@ -558,16 +549,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
         <v>29.0</v>
@@ -576,162 +567,6 @@
         <v>0.0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H23" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="G6" t="n">
         <v>61.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,10 +278,10 @@
         <v>30.0</v>
       </c>
       <c r="G6" t="n">
-        <v>61.0</v>
+        <v>60.0</v>
       </c>
       <c r="H6" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="7">
@@ -304,7 +304,7 @@
         <v>194.0</v>
       </c>
       <c r="G7" t="n">
-        <v>113.0</v>
+        <v>115.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -223,7 +223,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" t="n">
         <v>11.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>194.0</v>
+        <v>193.0</v>
       </c>
       <c r="G7" t="n">
-        <v>115.0</v>
+        <v>118.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -327,7 +327,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="G8" t="n">
         <v>34.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1500.0</v>
+        <v>1493.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>30.0</v>
       </c>
       <c r="G6" t="n">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>193.0</v>
+        <v>190.0</v>
       </c>
       <c r="G7" t="n">
-        <v>118.0</v>
+        <v>120.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -223,10 +223,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>30.0</v>
+        <v>29.0</v>
       </c>
       <c r="G6" t="n">
         <v>59.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>190.0</v>
+        <v>186.0</v>
       </c>
       <c r="G7" t="n">
-        <v>120.0</v>
+        <v>119.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -223,7 +223,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G4" t="n">
         <v>13.0</v>
@@ -278,7 +278,7 @@
         <v>29.0</v>
       </c>
       <c r="G6" t="n">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>186.0</v>
+        <v>185.0</v>
       </c>
       <c r="G7" t="n">
-        <v>119.0</v>
+        <v>117.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -330,7 +330,7 @@
         <v>16.0</v>
       </c>
       <c r="G8" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>29.0</v>
       </c>
       <c r="G6" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -330,7 +330,7 @@
         <v>16.0</v>
       </c>
       <c r="G8" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="G6" t="n">
         <v>59.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>185.0</v>
+        <v>184.0</v>
       </c>
       <c r="G7" t="n">
-        <v>117.0</v>
+        <v>118.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1493.0</v>
+        <v>1494.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>28.0</v>
       </c>
       <c r="G6" t="n">
-        <v>59.0</v>
+        <v>67.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -304,7 +304,7 @@
         <v>184.0</v>
       </c>
       <c r="G7" t="n">
-        <v>118.0</v>
+        <v>121.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -330,7 +330,7 @@
         <v>16.0</v>
       </c>
       <c r="G8" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>28.0</v>
       </c>
       <c r="G6" t="n">
-        <v>67.0</v>
+        <v>65.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>184.0</v>
+        <v>182.0</v>
       </c>
       <c r="G7" t="n">
-        <v>121.0</v>
+        <v>122.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -330,7 +330,7 @@
         <v>16.0</v>
       </c>
       <c r="G8" t="n">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>182.0</v>
       </c>
       <c r="G7" t="n">
-        <v>122.0</v>
+        <v>127.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>28.0</v>
       </c>
       <c r="G6" t="n">
-        <v>65.0</v>
+        <v>64.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -304,7 +304,7 @@
         <v>182.0</v>
       </c>
       <c r="G7" t="n">
-        <v>127.0</v>
+        <v>129.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -330,7 +330,7 @@
         <v>16.0</v>
       </c>
       <c r="G8" t="n">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>182.0</v>
       </c>
       <c r="G7" t="n">
-        <v>129.0</v>
+        <v>128.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>28.0</v>
       </c>
       <c r="G6" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>182.0</v>
+        <v>181.0</v>
       </c>
       <c r="G7" t="n">
-        <v>128.0</v>
+        <v>130.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>181.0</v>
       </c>
       <c r="G7" t="n">
-        <v>130.0</v>
+        <v>131.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>181.0</v>
+        <v>180.0</v>
       </c>
       <c r="G7" t="n">
-        <v>131.0</v>
+        <v>130.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>180.0</v>
+        <v>177.0</v>
       </c>
       <c r="G7" t="n">
-        <v>130.0</v>
+        <v>132.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>177.0</v>
+        <v>175.0</v>
       </c>
       <c r="G7" t="n">
-        <v>132.0</v>
+        <v>135.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>175.0</v>
       </c>
       <c r="G7" t="n">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>175.0</v>
+        <v>174.0</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0</v>
+        <v>135.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -327,10 +327,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="G8" t="n">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="G6" t="n">
         <v>63.0</v>
@@ -301,7 +301,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>174.0</v>
+        <v>172.0</v>
       </c>
       <c r="G7" t="n">
         <v>135.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>172.0</v>
+        <v>171.0</v>
       </c>
       <c r="G7" t="n">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1494.0</v>
+        <v>1495.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>27.0</v>
       </c>
       <c r="G6" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>171.0</v>
+        <v>166.0</v>
       </c>
       <c r="G7" t="n">
-        <v>136.0</v>
+        <v>140.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -356,7 +356,7 @@
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
@@ -431,7 +431,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1495.0</v>
+        <v>1497.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>166.0</v>
+        <v>165.0</v>
       </c>
       <c r="G7" t="n">
-        <v>140.0</v>
+        <v>145.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>165.0</v>
+        <v>163.0</v>
       </c>
       <c r="G7" t="n">
-        <v>145.0</v>
+        <v>147.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>27.0</v>
       </c>
       <c r="G6" t="n">
-        <v>64.0</v>
+        <v>63.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>163.0</v>
+        <v>162.0</v>
       </c>
       <c r="G7" t="n">
-        <v>147.0</v>
+        <v>151.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -330,7 +330,7 @@
         <v>15.0</v>
       </c>
       <c r="G8" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>27.0</v>
       </c>
       <c r="G6" t="n">
-        <v>63.0</v>
+        <v>62.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -304,7 +304,7 @@
         <v>162.0</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0</v>
+        <v>154.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1497.0</v>
+        <v>1498.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>162.0</v>
+        <v>160.0</v>
       </c>
       <c r="G7" t="n">
-        <v>154.0</v>
+        <v>163.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -330,7 +330,7 @@
         <v>15.0</v>
       </c>
       <c r="G8" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1498.0</v>
+        <v>1497.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>160.0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.0</v>
+        <v>164.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>160.0</v>
+        <v>159.0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.0</v>
+        <v>170.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -431,7 +431,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>10.0</v>
+        <v>8.0</v>
       </c>
       <c r="G12" t="n">
         <v>0.0</v>
@@ -457,7 +457,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>12.0</v>
+        <v>11.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>159.0</v>
       </c>
       <c r="G7" t="n">
-        <v>170.0</v>
+        <v>169.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1497.0</v>
+        <v>1498.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,7 +301,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>159.0</v>
+        <v>157.0</v>
       </c>
       <c r="G7" t="n">
         <v>169.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>157.0</v>
+        <v>153.0</v>
       </c>
       <c r="G7" t="n">
-        <v>169.0</v>
+        <v>175.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1498.0</v>
+        <v>1415.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -457,7 +457,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>27.0</v>
       </c>
       <c r="G6" t="n">
-        <v>62.0</v>
+        <v>61.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -304,7 +304,7 @@
         <v>153.0</v>
       </c>
       <c r="G7" t="n">
-        <v>175.0</v>
+        <v>176.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -457,7 +457,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="G13" t="n">
         <v>0.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1415.0</v>
+        <v>1416.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>153.0</v>
       </c>
       <c r="G7" t="n">
-        <v>176.0</v>
+        <v>180.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1416.0</v>
+        <v>1417.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,7 +301,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>153.0</v>
+        <v>149.0</v>
       </c>
       <c r="G7" t="n">
         <v>180.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>149.0</v>
+        <v>147.0</v>
       </c>
       <c r="G7" t="n">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -561,7 +561,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="G17" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -278,7 +278,7 @@
         <v>27.0</v>
       </c>
       <c r="G6" t="n">
-        <v>61.0</v>
+        <v>59.0</v>
       </c>
       <c r="H6" t="n">
         <v>15.0</v>
@@ -301,7 +301,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>147.0</v>
+        <v>145.0</v>
       </c>
       <c r="G7" t="n">
         <v>181.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>145.0</v>
+        <v>143.0</v>
       </c>
       <c r="G7" t="n">
-        <v>181.0</v>
+        <v>191.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1417.0</v>
+        <v>1416.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -249,7 +249,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="n">
         <v>0.0</v>
@@ -304,7 +304,7 @@
         <v>143.0</v>
       </c>
       <c r="G7" t="n">
-        <v>191.0</v>
+        <v>192.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>143.0</v>
       </c>
       <c r="G7" t="n">
-        <v>192.0</v>
+        <v>194.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -327,7 +327,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="n">
-        <v>15.0</v>
+        <v>14.0</v>
       </c>
       <c r="G8" t="n">
         <v>37.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1416.0</v>
+        <v>1418.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>143.0</v>
+        <v>142.0</v>
       </c>
       <c r="G7" t="n">
-        <v>194.0</v>
+        <v>203.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1418.0</v>
+        <v>1420.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1420.0</v>
+        <v>1421.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -301,10 +301,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0</v>
+        <v>140.0</v>
       </c>
       <c r="G7" t="n">
-        <v>203.0</v>
+        <v>209.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1421.0</v>
+        <v>1423.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>140.0</v>
       </c>
       <c r="G7" t="n">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1423.0</v>
+        <v>1424.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -304,7 +304,7 @@
         <v>140.0</v>
       </c>
       <c r="G7" t="n">
-        <v>210.0</v>
+        <v>213.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -509,7 +509,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>1424.0</v>
+        <v>1425.0</v>
       </c>
       <c r="G15" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -223,10 +223,10 @@
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
@@ -304,7 +304,7 @@
         <v>140.0</v>
       </c>
       <c r="G7" t="n">
-        <v>213.0</v>
+        <v>216.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="34">
   <si>
     <t>Area</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>SV</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>MI</t>
   </si>
   <si>
     <t>PV</t>
@@ -198,7 +204,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -224,7 +230,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -250,7 +256,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
         <v>2.0</v>
@@ -276,7 +282,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>5.0</v>
@@ -302,7 +308,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
         <v>1.0</v>
@@ -328,7 +334,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -354,7 +360,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -380,7 +386,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -406,7 +412,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -432,7 +438,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -458,7 +464,7 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
         <v>4.0</v>
@@ -484,7 +490,7 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" t="n">
         <v>6.0</v>
@@ -510,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
         <v>2.0</v>
@@ -536,7 +542,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
         <v>6.0</v>
@@ -562,7 +568,7 @@
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -588,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -614,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" t="n">
         <v>2.0</v>
@@ -640,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F19" t="n">
         <v>5.0</v>
@@ -666,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
         <v>1.0</v>
@@ -692,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F21" t="n">
         <v>1.0</v>
@@ -718,7 +724,7 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -744,7 +750,7 @@
         <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -770,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
         <v>2.0</v>
@@ -796,7 +802,7 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -822,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -848,7 +854,7 @@
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
         <v>1.0</v>
@@ -874,7 +880,7 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F28" t="n">
         <v>0.0</v>
@@ -900,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -926,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -952,7 +958,7 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -969,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
@@ -984,7 +990,7 @@
         <v>0.0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H32" t="n">
         <v>0.0</v>
@@ -995,22 +1001,22 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="H33" t="n">
         <v>0.0</v>
@@ -1021,22 +1027,22 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H34" t="n">
         <v>1.0</v>
@@ -1047,22 +1053,22 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H35" t="n">
         <v>0.0</v>
@@ -1073,22 +1079,22 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="H36" t="n">
         <v>0.0</v>
@@ -1099,25 +1105,25 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G37" t="n">
         <v>1.0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -1125,22 +1131,22 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F38" t="n">
         <v>1.0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.0</v>
+        <v>35.0</v>
       </c>
       <c r="H38" t="n">
         <v>0.0</v>
@@ -1151,25 +1157,25 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.0</v>
+        <v>67.0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="40">
@@ -1177,22 +1183,22 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
       </c>
       <c r="G40" t="n">
-        <v>11.0</v>
+        <v>2.0</v>
       </c>
       <c r="H40" t="n">
         <v>0.0</v>
@@ -1203,25 +1209,25 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -1229,22 +1235,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" t="n">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="H42" t="n">
         <v>1.0</v>
@@ -1255,25 +1261,25 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G43" t="n">
-        <v>50.0</v>
+        <v>7.0</v>
       </c>
       <c r="H43" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -1281,22 +1287,22 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H44" t="n">
         <v>0.0</v>
@@ -1307,22 +1313,22 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
       </c>
       <c r="G45" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="H45" t="n">
         <v>0.0</v>
@@ -1333,22 +1339,22 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H46" t="n">
         <v>0.0</v>
@@ -1359,25 +1365,25 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F47" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="n">
-        <v>24.0</v>
+        <v>1.0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48">
@@ -1385,22 +1391,22 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="H48" t="n">
         <v>0.0</v>
@@ -1414,22 +1420,22 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -1440,22 +1446,22 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
       </c>
       <c r="G50" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -1466,22 +1472,22 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
       </c>
       <c r="G51" t="n">
-        <v>6.0</v>
+        <v>50.0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="52">
@@ -1495,16 +1501,16 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
       </c>
       <c r="G52" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H52" t="n">
         <v>0.0</v>
@@ -1515,22 +1521,22 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
       </c>
       <c r="G53" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="H53" t="n">
         <v>0.0</v>
@@ -1541,22 +1547,22 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F54" t="n">
         <v>0.0</v>
       </c>
       <c r="G54" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H54" t="n">
         <v>0.0</v>
@@ -1567,22 +1573,22 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F55" t="n">
         <v>5.0</v>
       </c>
       <c r="G55" t="n">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="H55" t="n">
         <v>0.0</v>
@@ -1593,22 +1599,22 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F56" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="G56" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="H56" t="n">
         <v>0.0</v>
@@ -1625,16 +1631,16 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
         <v>2.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>26.0</v>
       </c>
       <c r="H57" t="n">
         <v>0.0</v>
@@ -1651,16 +1657,16 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
       </c>
       <c r="G58" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="H58" t="n">
         <v>0.0</v>
@@ -1671,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -1680,13 +1686,13 @@
         <v>24</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="H59" t="n">
         <v>0.0</v>
@@ -1703,10 +1709,10 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -1723,22 +1729,22 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F61" t="n">
         <v>0.0</v>
       </c>
       <c r="G61" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H61" t="n">
         <v>0.0</v>
@@ -1749,22 +1755,22 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F62" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="H62" t="n">
         <v>0.0</v>
@@ -1781,16 +1787,16 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F63" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="G63" t="n">
-        <v>104.0</v>
+        <v>7.0</v>
       </c>
       <c r="H63" t="n">
         <v>0.0</v>
@@ -1807,16 +1813,16 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F64" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="G64" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="H64" t="n">
         <v>0.0</v>
@@ -1833,19 +1839,19 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F65" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="G65" t="n">
-        <v>570.0</v>
+        <v>26.0</v>
       </c>
       <c r="H65" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -1859,18 +1865,226 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
         <v>26</v>
       </c>
-      <c r="F66" t="n">
+      <c r="E67" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G67" t="n">
         <v>2.0</v>
       </c>
-      <c r="G66" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H66" t="n">
+      <c r="H67" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>570.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H74" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -425,7 +425,7 @@
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="H12" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="19">
   <si>
     <t>Area</t>
   </si>
@@ -191,7 +191,7 @@
         <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
@@ -217,7 +217,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="H4" t="n">
         <v>1.0</v>
@@ -254,7 +254,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -263,13 +263,13 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="H6" t="n">
         <v>0.0</v>
@@ -295,7 +295,7 @@
         <v>2.0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -341,16 +341,16 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>67.0</v>
+        <v>20.0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -358,25 +358,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.0</v>
+        <v>57.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -393,16 +393,16 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -419,15 +419,41 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>7.0</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>0.0</v>
       </c>
     </row>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -295,7 +295,7 @@
         <v>2.0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="H10" t="n">
         <v>2.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -295,7 +295,7 @@
         <v>2.0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
@@ -373,7 +373,7 @@
         <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.0</v>
+        <v>57.0</v>
       </c>
       <c r="H10" t="n">
         <v>2.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -185,16 +185,16 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -211,16 +211,16 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,13 +237,13 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -419,16 +419,16 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -445,16 +445,16 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/farms_ZP.xlsx
+++ b/Download/farms_ZP.xlsx
@@ -321,7 +321,7 @@
         <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>35.0</v>
+        <v>34.0</v>
       </c>
       <c r="H8" t="n">
         <v>0.0</v>
@@ -347,7 +347,7 @@
         <v>0.0</v>
       </c>
       <c r="G9" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="H9" t="n">
         <v>0.0</v>
